--- a/2018年度Demo版本計畫.xlsx
+++ b/2018年度Demo版本計畫.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC09FF3-E9C1-4E8B-83BC-762C83417BA1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE93CD17-B6CA-4585-9A20-F46DFD8E7D26}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo版本目標" sheetId="1" r:id="rId1"/>
@@ -345,10 +345,15 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -372,20 +377,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,14 +413,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5026,16 +5026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5050,8 +5050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285749" y="6696075"/>
-          <a:ext cx="1666875" cy="390525"/>
+          <a:off x="5457824" y="6343650"/>
+          <a:ext cx="1666875" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5106,16 +5106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5130,8 +5130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114549" y="6696075"/>
-          <a:ext cx="1666875" cy="390525"/>
+          <a:off x="390524" y="6524625"/>
+          <a:ext cx="1666875" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5186,16 +5186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5210,7 +5210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276224" y="7210425"/>
+          <a:off x="3019424" y="6486525"/>
           <a:ext cx="1666875" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5267,15 +5267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5290,7 +5290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2085975" y="7248525"/>
+          <a:off x="2247900" y="7219950"/>
           <a:ext cx="2809875" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6991,8 +6991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7003,1037 +7003,1037 @@
   <sheetData>
     <row r="1" spans="2:29" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="11"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="11"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="11"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="11"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="11"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="11"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="11"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="11"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="11"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="11"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="11"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="11"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="11"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="6"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="11"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="6"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="11"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="11"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="6"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="11"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="6"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="6"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="11"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="6"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="11"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="6"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="11"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="11"/>
     </row>
     <row r="27" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="9"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="6"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="11"/>
     </row>
     <row r="28" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="6"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="11"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="8"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="11"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="6"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="11"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="11"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="6"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="11"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="11"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="6"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="6"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="11"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="11"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="6"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="11"/>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="6"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="11"/>
     </row>
     <row r="35" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="11"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="14"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="6"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8052,7 +8052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D5D5F6-D6A3-4DF3-AD05-3B73C4F274DC}">
   <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -8064,52 +8064,52 @@
     <row r="1" spans="2:8" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="18"/>
@@ -8119,7 +8119,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -8127,7 +8127,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -8135,7 +8135,7 @@
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -8143,7 +8143,7 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="18"/>
@@ -8153,7 +8153,7 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -8161,7 +8161,7 @@
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -8169,7 +8169,7 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -8177,7 +8177,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="18"/>
@@ -8187,7 +8187,7 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -8195,7 +8195,7 @@
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -8203,7 +8203,7 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -8211,7 +8211,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="18"/>
@@ -8221,7 +8221,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -8229,7 +8229,7 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -8237,7 +8237,7 @@
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -8246,27 +8246,27 @@
     </row>
     <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="18"/>
@@ -8276,7 +8276,7 @@
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -8284,7 +8284,7 @@
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -8292,7 +8292,7 @@
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="29"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -8300,7 +8300,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="18"/>
@@ -8310,7 +8310,7 @@
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -8318,7 +8318,7 @@
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -8326,7 +8326,7 @@
       <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="29"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="24"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -8334,7 +8334,7 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="18"/>
@@ -8344,7 +8344,7 @@
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="28"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -8352,7 +8352,7 @@
       <c r="G39" s="23"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -8360,7 +8360,7 @@
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="24"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -8368,7 +8368,7 @@
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="18"/>
@@ -8378,7 +8378,7 @@
       <c r="G42" s="20"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="28"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -8386,7 +8386,7 @@
       <c r="G43" s="23"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -8394,7 +8394,7 @@
       <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="24"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -8403,27 +8403,27 @@
     </row>
     <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="18"/>
@@ -8433,7 +8433,7 @@
       <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="28"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -8441,7 +8441,7 @@
       <c r="G51" s="23"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -8449,7 +8449,7 @@
       <c r="G52" s="23"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="24"/>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -8457,7 +8457,7 @@
       <c r="G53" s="26"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="18"/>
@@ -8467,7 +8467,7 @@
       <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="28"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -8475,7 +8475,7 @@
       <c r="G55" s="23"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="28"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="21"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -8483,7 +8483,7 @@
       <c r="G56" s="23"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="24"/>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -8491,7 +8491,7 @@
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="18"/>
@@ -8501,7 +8501,7 @@
       <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="28"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -8509,7 +8509,7 @@
       <c r="G59" s="23"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="28"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
@@ -8517,7 +8517,7 @@
       <c r="G60" s="23"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="29"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="24"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
@@ -8525,7 +8525,7 @@
       <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="18"/>
@@ -8535,7 +8535,7 @@
       <c r="G62" s="20"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="28"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
@@ -8543,7 +8543,7 @@
       <c r="G63" s="23"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="28"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="21"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
@@ -8551,7 +8551,7 @@
       <c r="G64" s="23"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="29"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="24"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
@@ -8560,27 +8560,27 @@
     </row>
     <row r="67" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="18"/>
@@ -8590,7 +8590,7 @@
       <c r="G70" s="20"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="28"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
@@ -8598,7 +8598,7 @@
       <c r="G71" s="23"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
@@ -8606,7 +8606,7 @@
       <c r="G72" s="23"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="29"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="24"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
@@ -8614,7 +8614,7 @@
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="18"/>
@@ -8624,7 +8624,7 @@
       <c r="G74" s="20"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="28"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="21"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -8632,7 +8632,7 @@
       <c r="G75" s="23"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="28"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="21"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -8640,7 +8640,7 @@
       <c r="G76" s="23"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="24"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
@@ -8648,7 +8648,7 @@
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="18"/>
@@ -8658,7 +8658,7 @@
       <c r="G78" s="20"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="28"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="21"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -8666,7 +8666,7 @@
       <c r="G79" s="23"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="28"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="21"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
@@ -8674,7 +8674,7 @@
       <c r="G80" s="23"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="24"/>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -8682,7 +8682,7 @@
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="18"/>
@@ -8692,7 +8692,7 @@
       <c r="G82" s="20"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="28"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
@@ -8700,7 +8700,7 @@
       <c r="G83" s="23"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="28"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
@@ -8708,7 +8708,7 @@
       <c r="G84" s="23"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="24"/>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -8717,27 +8717,27 @@
     </row>
     <row r="87" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="12"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="29"/>
     </row>
     <row r="89" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="12"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="18"/>
@@ -8747,7 +8747,7 @@
       <c r="G90" s="20"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="28"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="21"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22"/>
@@ -8755,7 +8755,7 @@
       <c r="G91" s="23"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="28"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="21"/>
       <c r="D92" s="22"/>
       <c r="E92" s="22"/>
@@ -8763,7 +8763,7 @@
       <c r="G92" s="23"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="24"/>
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
@@ -8771,7 +8771,7 @@
       <c r="G93" s="26"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="18"/>
@@ -8781,7 +8781,7 @@
       <c r="G94" s="20"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="28"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="21"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22"/>
@@ -8789,7 +8789,7 @@
       <c r="G95" s="23"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="28"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="21"/>
       <c r="D96" s="22"/>
       <c r="E96" s="22"/>
@@ -8797,7 +8797,7 @@
       <c r="G96" s="23"/>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="29"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="24"/>
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
@@ -8805,7 +8805,7 @@
       <c r="G97" s="26"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="18"/>
@@ -8815,7 +8815,7 @@
       <c r="G98" s="20"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="28"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="21"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
@@ -8823,7 +8823,7 @@
       <c r="G99" s="23"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="28"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="21"/>
       <c r="D100" s="22"/>
       <c r="E100" s="22"/>
@@ -8831,7 +8831,7 @@
       <c r="G100" s="23"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="29"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="24"/>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
@@ -8839,7 +8839,7 @@
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="18"/>
@@ -8849,7 +8849,7 @@
       <c r="G102" s="20"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="28"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="21"/>
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
@@ -8857,7 +8857,7 @@
       <c r="G103" s="23"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="28"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="21"/>
       <c r="D104" s="22"/>
       <c r="E104" s="22"/>
@@ -8865,7 +8865,7 @@
       <c r="G104" s="23"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="29"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="24"/>
       <c r="D105" s="25"/>
       <c r="E105" s="25"/>
@@ -8874,27 +8874,27 @@
     </row>
     <row r="107" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="12"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="29"/>
     </row>
     <row r="109" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="12"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="29"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="27" t="s">
+      <c r="B110" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C110" s="18"/>
@@ -8904,7 +8904,7 @@
       <c r="G110" s="20"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="28"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="21"/>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
@@ -8912,7 +8912,7 @@
       <c r="G111" s="23"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="28"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="21"/>
       <c r="D112" s="22"/>
       <c r="E112" s="22"/>
@@ -8920,7 +8920,7 @@
       <c r="G112" s="23"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="24"/>
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
@@ -8928,7 +8928,7 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="18"/>
@@ -8938,7 +8938,7 @@
       <c r="G114" s="20"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="28"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="21"/>
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
@@ -8946,7 +8946,7 @@
       <c r="G115" s="23"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="28"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="21"/>
       <c r="D116" s="22"/>
       <c r="E116" s="22"/>
@@ -8954,7 +8954,7 @@
       <c r="G116" s="23"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="29"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="24"/>
       <c r="D117" s="25"/>
       <c r="E117" s="25"/>
@@ -8962,7 +8962,7 @@
       <c r="G117" s="26"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="18"/>
@@ -8972,7 +8972,7 @@
       <c r="G118" s="20"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="28"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="21"/>
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
@@ -8980,7 +8980,7 @@
       <c r="G119" s="23"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="28"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="21"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
@@ -8988,7 +8988,7 @@
       <c r="G120" s="23"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="29"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="24"/>
       <c r="D121" s="25"/>
       <c r="E121" s="25"/>
@@ -8996,7 +8996,7 @@
       <c r="G121" s="26"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="18"/>
@@ -9006,7 +9006,7 @@
       <c r="G122" s="20"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="28"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="21"/>
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
@@ -9014,7 +9014,7 @@
       <c r="G123" s="23"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="28"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="21"/>
       <c r="D124" s="22"/>
       <c r="E124" s="22"/>
@@ -9022,7 +9022,7 @@
       <c r="G124" s="23"/>
     </row>
     <row r="125" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="29"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="24"/>
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
@@ -9031,56 +9031,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:G125"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:G113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:G117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:G121"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:G101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:G93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:G97"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:G77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:G81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:G85"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:G73"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:G53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:G57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:G61"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:G41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:G45"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:G33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:G37"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
@@ -9091,6 +9041,56 @@
     <mergeCell ref="C18:G21"/>
     <mergeCell ref="C22:G25"/>
     <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:G33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:G37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:G41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:G45"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:G53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:G57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:G61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:G73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:G77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:G81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:G85"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:G93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:G97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:G101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:G125"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:G113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:G117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:G121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018年度Demo版本計畫.xlsx
+++ b/2018年度Demo版本計畫.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE93CD17-B6CA-4585-9A20-F46DFD8E7D26}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E0E56-1416-491D-BE2D-C67745C3B17C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,6 +377,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,15 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5487,18 +5487,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>技能系統</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -5565,18 +5565,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>戰鬥魔素系統數值設計</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -5643,30 +5643,30 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>街區</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -5738,8 +5738,8 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>BOSS</a:t>
@@ -5750,8 +5750,8 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>關</a:t>
@@ -5762,13 +5762,13 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>教堂</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -5837,18 +5837,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>叛逃者瓦格</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -5920,13 +5920,13 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>技能介面</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -5993,30 +5993,30 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>街區</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -6088,8 +6088,8 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>BOSS</a:t>
@@ -6100,8 +6100,8 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>關</a:t>
@@ -6112,13 +6112,13 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>教堂</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -6185,18 +6185,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>叛逃者瓦格</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -6263,30 +6263,30 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>街區</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -6358,8 +6358,8 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>BOSS</a:t>
@@ -6370,8 +6370,8 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>關</a:t>
@@ -6382,13 +6382,13 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>教堂</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -6455,30 +6455,30 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>叛逃者瓦格</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>AI</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -6545,18 +6545,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>主角動畫補齊</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -6623,18 +6623,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>傳送系統</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -6645,16 +6645,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6669,16 +6669,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952624" y="16954500"/>
+          <a:off x="1885949" y="16202025"/>
           <a:ext cx="981076" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -6703,18 +6701,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>休息據點</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
@@ -8052,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D5D5F6-D6A3-4DF3-AD05-3B73C4F274DC}">
   <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8089,958 +8087,986 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="17"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="17"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="67" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="23"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="26"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="17"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="16"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="16"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="17"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="26"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="29"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="29"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="23"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="23"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="16"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="23"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="23"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="16"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="23"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="16"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="23"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="17"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="26"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="16"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="16"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="23"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="17"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="26"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="20"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="23"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="16"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="23"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="26"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="23"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="17"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="26"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="29"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="29"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="29"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="23"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="16"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="23"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="16"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="23"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="17"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="26"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="29"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="23"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="16"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="23"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="16"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="23"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="17"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="26"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="29"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="20"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="23"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="23"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="16"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="23"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="17"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="26"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="29"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="23"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="16"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="23"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="26"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="16"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="23"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="26"/>
     </row>
     <row r="125" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="17"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="26"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C10:G13"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C18:G21"/>
-    <mergeCell ref="C22:G25"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:G125"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:G113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:G117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:G93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:G97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:G101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:G77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:G81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:G85"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:G73"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:G53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:G57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:G61"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
@@ -9053,44 +9079,16 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:G45"/>
     <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:G53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:G57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:G61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:G73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:G77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:G81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:G85"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:G93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:G97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:G101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:G125"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:G113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:G117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C10:G13"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C18:G21"/>
+    <mergeCell ref="C22:G25"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018年度Demo版本計畫.xlsx
+++ b/2018年度Demo版本計畫.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E0E56-1416-491D-BE2D-C67745C3B17C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29178E1-3B3F-4827-A477-DA1511B098A6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo版本目標" sheetId="1" r:id="rId1"/>
@@ -377,15 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,6 +411,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6989,7 +6989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
@@ -8050,7 +8050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D5D5F6-D6A3-4DF3-AD05-3B73C4F274DC}">
   <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
@@ -8087,956 +8087,988 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="20"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="20"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="20"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="20"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="26"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="20"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="67" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="26"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="23"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="26"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="20"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="23"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="20"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="26"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="26"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="23"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="20"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="26"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="23"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="26"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="20"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="26"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="19"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="26"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="23"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="20"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="29"/>
     </row>
     <row r="89" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="17"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="23"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="19"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="26"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="23"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="19"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="26"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="23"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="20"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="29"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="23"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="20"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="19"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="26"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="23"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="19"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="26"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="23"/>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="20"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="29"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="23"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="20"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="19"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="26"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="26"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="23"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="20"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="29"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="23"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="19"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="26"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="23"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="26"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="23"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="20"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="29"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="26"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="17"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="29"/>
     </row>
     <row r="109" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="17"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="29"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="23"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="20"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="19"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="26"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="23"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="19"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="26"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="23"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="20"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="29"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="26"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="21"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="23"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="20"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="19"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="26"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="23"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="19"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="26"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="23"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="20"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="29"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="23"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="20"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="19"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="26"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="23"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="19"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="26"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="23"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="20"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="29"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="26"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="23"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="20"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="19"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="26"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="23"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="19"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="26"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="23"/>
     </row>
     <row r="125" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="20"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="29"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:G125"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:G113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:G117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C10:G13"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C18:G21"/>
+    <mergeCell ref="C22:G25"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:G33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:G37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:G41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:G45"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:G53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:G57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:G61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:G73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:G77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:G81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:G85"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="B89:G89"/>
@@ -9049,46 +9081,14 @@
     <mergeCell ref="B102:B105"/>
     <mergeCell ref="C102:G105"/>
     <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:G77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:G81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:G85"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:G73"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:G53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:G57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:G61"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:G33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:G37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:G41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:G45"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C10:G13"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C18:G21"/>
-    <mergeCell ref="C22:G25"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:G125"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:G113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:G117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:G121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018年度Demo版本計畫.xlsx
+++ b/2018年度Demo版本計畫.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29178E1-3B3F-4827-A477-DA1511B098A6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7A9E1C-31FA-4267-A094-537D7D33A634}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,6 +377,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,15 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4321,15 +4321,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4344,7 +4344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12163425" y="3448050"/>
+          <a:off x="12172950" y="3876675"/>
           <a:ext cx="1524000" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4418,15 +4418,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4441,7 +4441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11696700" y="3524250"/>
+          <a:off x="11706225" y="3952875"/>
           <a:ext cx="352425" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4481,15 +4481,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4504,7 +4504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12163425" y="3895725"/>
+          <a:off x="12172950" y="3419475"/>
           <a:ext cx="1524000" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4584,16 +4584,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4608,7 +4608,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11687175" y="4000500"/>
+          <a:off x="11696700" y="3524250"/>
           <a:ext cx="352425" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -6990,7 +6990,7 @@
   <dimension ref="B1:AC39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8050,7 +8050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D5D5F6-D6A3-4DF3-AD05-3B73C4F274DC}">
   <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
@@ -8087,958 +8087,986 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="17"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="17"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="67" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="23"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="26"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="17"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="16"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="16"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="17"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="26"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="29"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="29"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="23"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="23"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="16"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="23"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="23"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="16"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="23"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="16"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="23"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="17"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="26"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="16"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="16"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="23"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="17"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="26"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="20"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="23"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="16"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="23"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="26"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="23"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="17"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="26"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="29"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="29"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="29"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="23"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="16"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="23"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="16"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="23"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="17"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="26"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="29"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="23"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="16"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="23"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="16"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="23"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="17"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="26"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="29"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="20"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="23"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="23"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="16"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="23"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="17"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="26"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="29"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="23"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="16"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="23"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="26"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="16"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="23"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="26"/>
     </row>
     <row r="125" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="17"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="26"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C10:G13"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C18:G21"/>
-    <mergeCell ref="C22:G25"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:G125"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:G113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:G117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:G93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:G97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:G101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:G77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:G81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:G85"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:G73"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:G53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:G57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:G61"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
@@ -9051,44 +9079,16 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:G45"/>
     <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:G53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:G57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:G61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:G73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:G77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:G81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:G85"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:G93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:G97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:G101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:G125"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:G113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:G117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C10:G13"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C18:G21"/>
+    <mergeCell ref="C22:G25"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018年度Demo版本計畫.xlsx
+++ b/2018年度Demo版本計畫.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7A9E1C-31FA-4267-A094-537D7D33A634}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A595A-C81D-4510-BA5F-4310280ABCC2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo版本目標" sheetId="1" r:id="rId1"/>
@@ -377,15 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,6 +411,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5512,13 +5512,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5534,7 +5534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2209799" y="1981200"/>
-          <a:ext cx="904876" cy="504825"/>
+          <a:ext cx="1019176" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6989,8 +6989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8050,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D5D5F6-D6A3-4DF3-AD05-3B73C4F274DC}">
   <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8087,956 +8087,988 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="20"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="20"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="20"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="20"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="26"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="20"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="67" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="26"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="23"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="26"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="20"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="23"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="20"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="26"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="26"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="23"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="20"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="26"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="23"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="26"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="20"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="26"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="19"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="26"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="23"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="20"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="29"/>
     </row>
     <row r="89" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="17"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="23"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="19"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="26"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="23"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="19"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="26"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="23"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="20"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="29"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="23"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="20"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="19"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="26"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="23"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="19"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="26"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="23"/>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="20"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="29"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="23"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="20"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="19"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="26"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="26"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="23"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="20"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="29"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="23"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="19"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="26"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="23"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="26"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="23"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="20"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="29"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="26"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="17"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="29"/>
     </row>
     <row r="109" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="17"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="29"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="23"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="20"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="19"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="26"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="23"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="19"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="26"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="23"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="20"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="29"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="26"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="21"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="23"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="20"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="19"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="26"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="23"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="19"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="26"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="23"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="20"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="29"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="23"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="20"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="19"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="26"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="23"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="19"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="26"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="23"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="20"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="29"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="26"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="23"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="20"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="19"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="26"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="23"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="19"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="26"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="23"/>
     </row>
     <row r="125" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="20"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="29"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:G125"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:G113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:G117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C10:G13"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C18:G21"/>
+    <mergeCell ref="C22:G25"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:G33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:G37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:G41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:G45"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:G53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:G57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:G61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:G73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:G77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:G81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:G85"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="B89:G89"/>
@@ -9049,46 +9081,14 @@
     <mergeCell ref="B102:B105"/>
     <mergeCell ref="C102:G105"/>
     <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:G77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:G81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:G85"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:G73"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:G53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:G57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:G61"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:G33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:G37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:G41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:G45"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C10:G13"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C18:G21"/>
-    <mergeCell ref="C22:G25"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:G125"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:G113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:G117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:G121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018年度Demo版本計畫.xlsx
+++ b/2018年度Demo版本計畫.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A595A-C81D-4510-BA5F-4310280ABCC2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6891D9EE-4E1F-4EEB-B291-BAE25B287983}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo版本目標" sheetId="1" r:id="rId1"/>
@@ -377,6 +377,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,15 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2349,7 +2349,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2427,7 +2429,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2450,7 +2454,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
               <a:solidFill>
@@ -2463,10 +2467,6 @@
             </a:rPr>
             <a:t>裝備系統</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600">
-            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2505,7 +2505,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2528,7 +2530,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
               <a:solidFill>
@@ -2541,10 +2543,6 @@
             </a:rPr>
             <a:t>敵人</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600">
-            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3143,7 +3141,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3166,7 +3166,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
               <a:solidFill>
@@ -3179,10 +3179,6 @@
             </a:rPr>
             <a:t>第一章前段</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600">
-            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4236,16 +4232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4260,7 +4256,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12963524" y="2495550"/>
+          <a:off x="12915899" y="2476500"/>
           <a:ext cx="1219201" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -4678,7 +4674,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4899,7 +4897,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5339,6 +5339,149 @@
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F37FDE7-1251-4922-AB03-43A7AF3219AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="2962275"/>
+          <a:ext cx="1524000" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>遊戲開頭主選單</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="箭號: 向右 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A9D947-916E-4C62-AA10-D750B519CCBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14382750" y="3067050"/>
+          <a:ext cx="352425" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6989,8 +7132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8050,7 +8193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D5D5F6-D6A3-4DF3-AD05-3B73C4F274DC}">
   <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -8087,958 +8230,986 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="17"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="17"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="67" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="23"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="26"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="17"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="16"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="16"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="17"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="26"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="29"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="29"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="23"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="23"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="16"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="23"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="23"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="16"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="23"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="16"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="23"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="17"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="26"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="16"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="16"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="23"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="17"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="26"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="20"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="23"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="16"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="23"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="26"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="23"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="17"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="26"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="29"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="29"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="29"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="23"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="16"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="23"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="16"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="23"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="17"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="26"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="29"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="23"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="16"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="23"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="16"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="23"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="17"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="26"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="29"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="20"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="23"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="23"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="16"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="23"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="17"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="26"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="29"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="23"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="16"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="23"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="26"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="16"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="23"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="26"/>
     </row>
     <row r="125" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="17"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="26"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C10:G13"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C18:G21"/>
-    <mergeCell ref="C22:G25"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:G125"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:G113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:G117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:G93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:G97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:G101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:G77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:G81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:G85"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:G73"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:G53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:G57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:G61"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
@@ -9051,44 +9222,16 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:G45"/>
     <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:G53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:G57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:G61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:G73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:G77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:G81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:G85"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:G93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:G97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:G101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:G125"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:G113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:G117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C10:G13"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C18:G21"/>
+    <mergeCell ref="C22:G25"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018年度Demo版本計畫.xlsx
+++ b/2018年度Demo版本計畫.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6891D9EE-4E1F-4EEB-B291-BAE25B287983}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92A7B8-F412-467A-85B6-369A2BC7F074}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,15 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,6 +411,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,13 +520,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -541,7 +541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11563350" y="1704975"/>
+          <a:off x="11563350" y="1628775"/>
           <a:ext cx="2628900" cy="5114925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4232,14 +4232,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -4256,7 +4256,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12915899" y="2476500"/>
+          <a:off x="13087349" y="2476500"/>
           <a:ext cx="1219201" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -7133,7 +7133,7 @@
   <dimension ref="B1:AC39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8230,956 +8230,988 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="20"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="20"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="20"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="20"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="26"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="20"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="67" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="26"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="23"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="26"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="20"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="23"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="20"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="26"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="26"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="23"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="20"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="26"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="23"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="26"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="20"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="26"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="19"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="26"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="23"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="20"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="29"/>
     </row>
     <row r="89" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="17"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="23"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="19"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="26"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="23"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="19"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="26"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="23"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="20"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="29"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="23"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="20"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="19"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="26"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="23"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="19"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="26"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="23"/>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="20"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="29"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="23"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="20"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="19"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="26"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="26"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="23"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="20"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="29"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="23"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="19"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="26"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="23"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="26"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="23"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="20"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="29"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="26"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="17"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="29"/>
     </row>
     <row r="109" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="17"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="29"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="23"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="20"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="19"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="26"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="23"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="19"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="26"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="23"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="20"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="29"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="26"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="21"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="23"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="20"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="19"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="26"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="23"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="19"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="26"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="23"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="20"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="29"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="23"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="20"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="19"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="26"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="23"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="19"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="26"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="23"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="20"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="29"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="26"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="23"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="20"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="19"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="26"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="23"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="19"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="26"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="23"/>
     </row>
     <row r="125" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="20"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="29"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:G125"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:G113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:G117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C10:G13"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C18:G21"/>
+    <mergeCell ref="C22:G25"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:G33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:G37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:G41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:G45"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:G53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:G57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:G61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:G73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:G77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:G81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:G85"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="B89:G89"/>
@@ -9192,46 +9224,14 @@
     <mergeCell ref="B102:B105"/>
     <mergeCell ref="C102:G105"/>
     <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:G77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:G81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:G85"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:G73"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:G53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:G57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:G61"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:G33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:G37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:G41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:G45"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C10:G13"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C18:G21"/>
-    <mergeCell ref="C22:G25"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:G125"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:G113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:G117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:G121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018年度Demo版本計畫.xlsx
+++ b/2018年度Demo版本計畫.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92A7B8-F412-467A-85B6-369A2BC7F074}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268086C0-F36F-415F-8907-AB901481B53B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,6 +377,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,15 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,13 +520,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -541,7 +541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11563350" y="1628775"/>
+          <a:off x="11563350" y="1704975"/>
           <a:ext cx="2628900" cy="5114925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7133,7 +7133,7 @@
   <dimension ref="B1:AC39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8194,7 +8194,7 @@
   <dimension ref="B1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8230,958 +8230,986 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="17"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="17"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="67" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="23"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="26"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="17"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="16"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="16"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="17"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="26"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="29"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="29"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="23"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="23"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="16"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="23"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="23"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="16"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="23"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="16"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="23"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="17"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="26"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="16"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="16"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="23"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="17"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="26"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="20"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="23"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="16"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="23"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="26"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="23"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="17"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="26"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="29"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="29"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="29"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="23"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="16"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="23"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="16"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="23"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="17"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="26"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="29"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="23"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="16"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="23"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="16"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="23"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="17"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="26"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="29"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="20"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="23"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="23"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="16"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="23"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="17"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="26"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="29"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="23"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="16"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="23"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="26"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="16"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="23"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="26"/>
     </row>
     <row r="125" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="17"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="26"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C10:G13"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C18:G21"/>
-    <mergeCell ref="C22:G25"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:G125"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:G113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:G117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:G93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:G97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:G101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:G77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:G81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:G85"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:G65"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:G73"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:G53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:G57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:G61"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
@@ -9194,44 +9222,16 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:G45"/>
     <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:G53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:G57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:G61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:G65"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:G73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:G77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:G81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:G85"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:G93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:G97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:G101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:G125"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:G113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:G117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:G121"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C10:G13"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C18:G21"/>
+    <mergeCell ref="C22:G25"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
